--- a/Report-Energy_Online_(kWh).xlsx
+++ b/Report-Energy_Online_(kWh).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\ImproX\SCGLP\linux-improx-broker\dist\1.Deploy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\ImproX\SCGLP\improx-broker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1F5B8E-AE28-416E-A20A-A2BB614179AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0B3093-A88B-4846-8954-D51DAFAFC545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{CD7F1833-5369-4936-B486-E2170398BF47}"/>
   </bookViews>
@@ -33,6 +33,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1631,7 +1653,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1814,23 +1836,8 @@
     <xf numFmtId="4" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="4" fontId="7" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -2166,7 +2173,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2190,7 +2197,7 @@
   <dimension ref="A1:AU2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" customHeight="1"/>
@@ -2265,7 +2272,7 @@
   <dimension ref="B1:G187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G160" sqref="G160"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27.75"/>
@@ -2281,22 +2288,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="37.15" customHeight="1">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="73"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="2:7" s="10" customFormat="1" ht="34.9" customHeight="1">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="74"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
       <c r="F2" s="8"/>
@@ -2339,18 +2346,15 @@
       <c r="F5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="63">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C5&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G5" s="63" cm="1">
+        <f t="array" ref="G5">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C5&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -2372,18 +2376,15 @@
       <c r="F6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C6&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G6" s="63" cm="1">
+        <f t="array" ref="G6">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C6&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -2405,18 +2406,15 @@
       <c r="F7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C7&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G7" s="63" cm="1">
+        <f t="array" ref="G7">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C7&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -2438,18 +2436,15 @@
       <c r="F8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C8&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G8" s="63" cm="1">
+        <f t="array" ref="G8">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C8&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -2471,18 +2466,15 @@
       <c r="F9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C9&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G9" s="63" cm="1">
+        <f t="array" ref="G9">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C9&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -2504,18 +2496,15 @@
       <c r="F10" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C10&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G10" s="63" cm="1">
+        <f t="array" ref="G10">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C10&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -2537,18 +2526,15 @@
       <c r="F11" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C11&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G11" s="63" cm="1">
+        <f t="array" ref="G11">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C11&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -2570,18 +2556,15 @@
       <c r="F12" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C12&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G12" s="63" cm="1">
+        <f t="array" ref="G12">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C12&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -2603,18 +2586,15 @@
       <c r="F13" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C13&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G13" s="63" cm="1">
+        <f t="array" ref="G13">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C13&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -2636,18 +2616,15 @@
       <c r="F14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C14&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G14" s="63" cm="1">
+        <f t="array" ref="G14">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C14&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -2669,18 +2646,15 @@
       <c r="F15" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C15&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G15" s="63" cm="1">
+        <f t="array" ref="G15">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C15&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -2702,18 +2676,15 @@
       <c r="F16" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C16&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G16" s="63" cm="1">
+        <f t="array" ref="G16">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C16&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -2735,18 +2706,15 @@
       <c r="F17" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C17&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G17" s="63" cm="1">
+        <f t="array" ref="G17">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C17&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -2768,18 +2736,15 @@
       <c r="F18" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C18&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G18" s="63" cm="1">
+        <f t="array" ref="G18">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C18&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -2801,18 +2766,15 @@
       <c r="F19" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C19&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G19" s="63" cm="1">
+        <f t="array" ref="G19">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C19&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -2834,18 +2796,15 @@
       <c r="F20" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C20&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G20" s="63" cm="1">
+        <f t="array" ref="G20">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C20&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -2867,18 +2826,15 @@
       <c r="F21" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C21&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G21" s="63" cm="1">
+        <f t="array" ref="G21">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C21&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -2900,18 +2856,15 @@
       <c r="F22" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C22&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G22" s="63" cm="1">
+        <f t="array" ref="G22">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C22&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -2933,18 +2886,15 @@
       <c r="F23" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C23&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G23" s="63" cm="1">
+        <f t="array" ref="G23">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C23&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -2966,18 +2916,15 @@
       <c r="F24" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C24&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G24" s="63" cm="1">
+        <f t="array" ref="G24">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C24&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -2999,18 +2946,15 @@
       <c r="F25" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G25" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C25&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G25" s="63" cm="1">
+        <f t="array" ref="G25">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C25&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -3032,18 +2976,15 @@
       <c r="F26" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C26&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G26" s="63" cm="1">
+        <f t="array" ref="G26">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C26&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -3067,18 +3008,15 @@
       <c r="F27" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="63">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C27&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G27" s="63" cm="1">
+        <f t="array" ref="G27">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C27&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -3100,18 +3038,15 @@
       <c r="F28" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G28" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C28&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G28" s="63" cm="1">
+        <f t="array" ref="G28">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C28&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -3133,18 +3068,15 @@
       <c r="F29" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C29&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G29" s="63" cm="1">
+        <f t="array" ref="G29">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C29&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -3166,18 +3098,15 @@
       <c r="F30" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C30&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G30" s="63" cm="1">
+        <f t="array" ref="G30">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C30&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -3199,18 +3128,15 @@
       <c r="F31" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C31&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G31" s="63" cm="1">
+        <f t="array" ref="G31">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C31&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -3232,18 +3158,15 @@
       <c r="F32" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="G32" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C32&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G32" s="63" cm="1">
+        <f t="array" ref="G32">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C32&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -3267,18 +3190,15 @@
       <c r="F33" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="G33" s="63">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C33&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G33" s="63" cm="1">
+        <f t="array" ref="G33">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C33&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -3300,18 +3220,15 @@
       <c r="F34" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="G34" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C34&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G34" s="63" cm="1">
+        <f t="array" ref="G34">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C34&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -3329,7 +3246,7 @@
       </c>
       <c r="E35" s="31"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="66">
+      <c r="G35" s="64">
         <f ca="1">IFERROR(
     INDIRECT(
         "RawData!" &amp;
@@ -3362,18 +3279,15 @@
       <c r="F36" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="G36" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C36&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G36" s="63" cm="1">
+        <f t="array" ref="G36">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C36&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -3395,18 +3309,15 @@
       <c r="F37" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G37" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C37&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G37" s="63" cm="1">
+        <f t="array" ref="G37">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C37&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -3430,18 +3341,15 @@
       <c r="F38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="67">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C38&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G38" s="63" cm="1">
+        <f t="array" ref="G38">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C38&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -3463,18 +3371,15 @@
       <c r="F39" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="G39" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C39&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G39" s="63" cm="1">
+        <f t="array" ref="G39">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C39&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -3496,18 +3401,15 @@
       <c r="F40" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="G40" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C40&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G40" s="63" cm="1">
+        <f t="array" ref="G40">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C40&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -3529,18 +3431,15 @@
       <c r="F41" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="G41" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C41&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G41" s="63" cm="1">
+        <f t="array" ref="G41">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C41&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -3562,18 +3461,15 @@
       <c r="F42" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="G42" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C42&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G42" s="63" cm="1">
+        <f t="array" ref="G42">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C42&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -3595,18 +3491,15 @@
       <c r="F43" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="G43" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C43&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G43" s="63" cm="1">
+        <f t="array" ref="G43">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C43&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -3628,18 +3521,15 @@
       <c r="F44" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G44" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C44&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G44" s="63" cm="1">
+        <f t="array" ref="G44">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C44&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -3661,18 +3551,15 @@
       <c r="F45" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="G45" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C45&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G45" s="63" cm="1">
+        <f t="array" ref="G45">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C45&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -3692,18 +3579,15 @@
       </c>
       <c r="E46" s="39"/>
       <c r="F46" s="40"/>
-      <c r="G46" s="68">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawFeeder!" &amp;
-        ADDRESS(
-            2,
-            MATCH(
-                'Energy Online (kWh)'!$C46,
-                RawFeeder!$1:$1,
-                0
-            ),
-            4
+      <c r="G46" s="63" cm="1">
+        <f t="array" ref="G46">IFERROR(
+    INDEX(
+        RawFeeder!$1:$1000,
+        COUNTA( RawFeeder!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C46,
+             RawFeeder!$1:$1,
+            0
         )
     ),
     0
@@ -3727,22 +3611,19 @@
       <c r="F47" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="G47" s="65">
-        <f ca="1">ABS(IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C47&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
-    0
-))</f>
+      <c r="G47" s="63" cm="1">
+        <f t="array" ref="G47">IFERROR(
+    ABS(INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C47&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
+        )
+    )),
+    0
+)</f>
         <v>0</v>
       </c>
     </row>
@@ -3760,18 +3641,15 @@
       <c r="F48" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="G48" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C48&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G48" s="63" cm="1">
+        <f t="array" ref="G48">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C48&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -3793,18 +3671,15 @@
       <c r="F49" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="G49" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C49&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G49" s="63" cm="1">
+        <f t="array" ref="G49">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C49&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -3826,18 +3701,15 @@
       <c r="F50" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="G50" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C50&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G50" s="63" cm="1">
+        <f t="array" ref="G50">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C50&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -3859,18 +3731,15 @@
       <c r="F51" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="G51" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C51&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G51" s="63" cm="1">
+        <f t="array" ref="G51">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C51&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -3892,18 +3761,15 @@
       <c r="F52" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G52" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C52&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G52" s="63" cm="1">
+        <f t="array" ref="G52">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C52&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -3925,18 +3791,15 @@
       <c r="F53" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="G53" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C53&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G53" s="63" cm="1">
+        <f t="array" ref="G53">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C53&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -3958,18 +3821,15 @@
       <c r="F54" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="G54" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C54&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G54" s="63" cm="1">
+        <f t="array" ref="G54">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C54&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -3993,18 +3853,15 @@
       <c r="F55" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="G55" s="63">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C55&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G55" s="63" cm="1">
+        <f t="array" ref="G55">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C55&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -4024,18 +3881,15 @@
       </c>
       <c r="E56" s="39"/>
       <c r="F56" s="40"/>
-      <c r="G56" s="68">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawFeeder!" &amp;
-        ADDRESS(
-            2,
-            MATCH(
-                'Energy Online (kWh)'!$C56,
-                RawFeeder!$1:$1,
-                0
-            ),
-            4
+      <c r="G56" s="63" cm="1">
+        <f t="array" ref="G56">IFERROR(
+    INDEX(
+        RawFeeder!$1:$1000,
+        COUNTA( RawFeeder!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C56,
+             RawFeeder!$1:$1,
+            0
         )
     ),
     0
@@ -4053,18 +3907,15 @@
       </c>
       <c r="E57" s="43"/>
       <c r="F57" s="44"/>
-      <c r="G57" s="68">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawFeeder!" &amp;
-        ADDRESS(
-            2,
-            MATCH(
-                'Energy Online (kWh)'!$C57,
-                RawFeeder!$1:$1,
-                0
-            ),
-            4
+      <c r="G57" s="63" cm="1">
+        <f t="array" ref="G57">IFERROR(
+    INDEX(
+        RawFeeder!$1:$1000,
+        COUNTA( RawFeeder!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C57,
+             RawFeeder!$1:$1,
+            0
         )
     ),
     0
@@ -4082,18 +3933,15 @@
       </c>
       <c r="E58" s="47"/>
       <c r="F58" s="48"/>
-      <c r="G58" s="68">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawFeeder!" &amp;
-        ADDRESS(
-            2,
-            MATCH(
-                'Energy Online (kWh)'!$C58,
-                RawFeeder!$1:$1,
-                0
-            ),
-            4
+      <c r="G58" s="63" cm="1">
+        <f t="array" ref="G58">IFERROR(
+    INDEX(
+        RawFeeder!$1:$1000,
+        COUNTA( RawFeeder!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C58,
+             RawFeeder!$1:$1,
+            0
         )
     ),
     0
@@ -4117,18 +3965,15 @@
       <c r="F59" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="G59" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C59&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G59" s="63" cm="1">
+        <f t="array" ref="G59">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C59&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -4150,18 +3995,15 @@
       <c r="F60" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="G60" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C60&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G60" s="63" cm="1">
+        <f t="array" ref="G60">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C60&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -4183,18 +4025,15 @@
       <c r="F61" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="G61" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C61&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G61" s="63" cm="1">
+        <f t="array" ref="G61">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C61&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -4216,18 +4055,15 @@
       <c r="F62" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="G62" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C62&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G62" s="63" cm="1">
+        <f t="array" ref="G62">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C62&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -4249,18 +4085,15 @@
       <c r="F63" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="G63" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C63&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G63" s="63" cm="1">
+        <f t="array" ref="G63">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C63&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -4282,18 +4115,15 @@
       <c r="F64" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="G64" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C64&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G64" s="63" cm="1">
+        <f t="array" ref="G64">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C64&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -4315,18 +4145,15 @@
       <c r="F65" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="G65" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C65&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G65" s="63" cm="1">
+        <f t="array" ref="G65">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C65&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -4348,18 +4175,15 @@
       <c r="F66" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="G66" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C66&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G66" s="63" cm="1">
+        <f t="array" ref="G66">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C66&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -4381,18 +4205,15 @@
       <c r="F67" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="G67" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C67&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G67" s="63" cm="1">
+        <f t="array" ref="G67">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C67&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -4414,18 +4235,15 @@
       <c r="F68" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="G68" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C68&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G68" s="63" cm="1">
+        <f t="array" ref="G68">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C68&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -4447,18 +4265,15 @@
       <c r="F69" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="G69" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C69&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G69" s="63" cm="1">
+        <f t="array" ref="G69">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C69&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -4480,18 +4295,15 @@
       <c r="F70" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="G70" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C70&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G70" s="63" cm="1">
+        <f t="array" ref="G70">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C70&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -4515,18 +4327,15 @@
       <c r="F71" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="G71" s="63">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C71&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G71" s="63" cm="1">
+        <f t="array" ref="G71">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C71&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -4548,18 +4357,15 @@
       <c r="F72" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="G72" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C72&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G72" s="63" cm="1">
+        <f t="array" ref="G72">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C72&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -4581,18 +4387,15 @@
       <c r="F73" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="G73" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C73&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G73" s="63" cm="1">
+        <f t="array" ref="G73">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C73&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -4614,18 +4417,15 @@
       <c r="F74" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="G74" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C74&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G74" s="63" cm="1">
+        <f t="array" ref="G74">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C74&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -4647,18 +4447,15 @@
       <c r="F75" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="G75" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C75&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G75" s="63" cm="1">
+        <f t="array" ref="G75">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C75&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -4680,18 +4477,15 @@
       <c r="F76" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="G76" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C76&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G76" s="63" cm="1">
+        <f t="array" ref="G76">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C76&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -4713,18 +4507,15 @@
       <c r="F77" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="G77" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C77&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G77" s="63" cm="1">
+        <f t="array" ref="G77">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C77&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -4746,18 +4537,15 @@
       <c r="F78" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="G78" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C78&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G78" s="63" cm="1">
+        <f t="array" ref="G78">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C78&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -4779,18 +4567,15 @@
       <c r="F79" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="G79" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C79&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G79" s="63" cm="1">
+        <f t="array" ref="G79">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C79&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -4812,18 +4597,15 @@
       <c r="F80" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="G80" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C80&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G80" s="63" cm="1">
+        <f t="array" ref="G80">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C80&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -4845,18 +4627,15 @@
       <c r="F81" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="G81" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C81&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G81" s="63" cm="1">
+        <f t="array" ref="G81">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C81&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -4878,18 +4657,15 @@
       <c r="F82" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="G82" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C82&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G82" s="63" cm="1">
+        <f t="array" ref="G82">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C82&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -4911,18 +4687,15 @@
       <c r="F83" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="G83" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C83&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G83" s="63" cm="1">
+        <f t="array" ref="G83">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C83&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -4944,18 +4717,15 @@
       <c r="F84" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="G84" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C84&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G84" s="63" cm="1">
+        <f t="array" ref="G84">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C84&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -4977,18 +4747,15 @@
       <c r="F85" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="G85" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C85&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G85" s="63" cm="1">
+        <f t="array" ref="G85">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C85&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5010,18 +4777,15 @@
       <c r="F86" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="G86" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C86&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G86" s="63" cm="1">
+        <f t="array" ref="G86">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C86&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5043,18 +4807,15 @@
       <c r="F87" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="G87" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C87&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G87" s="63" cm="1">
+        <f t="array" ref="G87">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C87&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5076,18 +4837,15 @@
       <c r="F88" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="G88" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C88&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G88" s="63" cm="1">
+        <f t="array" ref="G88">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C88&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5109,18 +4867,15 @@
       <c r="F89" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="G89" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C89&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G89" s="63" cm="1">
+        <f t="array" ref="G89">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C89&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5142,18 +4897,15 @@
       <c r="F90" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="G90" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C90&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G90" s="63" cm="1">
+        <f t="array" ref="G90">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C90&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5177,18 +4929,15 @@
       <c r="F91" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="G91" s="63">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C91&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G91" s="63" cm="1">
+        <f t="array" ref="G91">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C91&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5212,18 +4961,15 @@
       <c r="F92" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="G92" s="67">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C92&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G92" s="63" cm="1">
+        <f t="array" ref="G92">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C92&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5247,18 +4993,15 @@
       <c r="F93" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="G93" s="63">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C93&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G93" s="63" cm="1">
+        <f t="array" ref="G93">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C93&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5280,18 +5023,15 @@
       <c r="F94" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="G94" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C94&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G94" s="63" cm="1">
+        <f t="array" ref="G94">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C94&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5313,18 +5053,15 @@
       <c r="F95" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="G95" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C95&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G95" s="63" cm="1">
+        <f t="array" ref="G95">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C95&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5346,18 +5083,15 @@
       <c r="F96" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="G96" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C96&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G96" s="63" cm="1">
+        <f t="array" ref="G96">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C96&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5379,18 +5113,15 @@
       <c r="F97" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="G97" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C97&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G97" s="63" cm="1">
+        <f t="array" ref="G97">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C97&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5412,18 +5143,15 @@
       <c r="F98" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="G98" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C98&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G98" s="63" cm="1">
+        <f t="array" ref="G98">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C98&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5447,18 +5175,15 @@
       <c r="F99" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="G99" s="63">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C99&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G99" s="63" cm="1">
+        <f t="array" ref="G99">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C99&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5480,18 +5205,15 @@
       <c r="F100" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="G100" s="69">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C100&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G100" s="63" cm="1">
+        <f t="array" ref="G100">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C100&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5513,18 +5235,15 @@
       <c r="F101" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="G101" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C101&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G101" s="63" cm="1">
+        <f t="array" ref="G101">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C101&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5546,18 +5265,15 @@
       <c r="F102" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="G102" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C102&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G102" s="63" cm="1">
+        <f t="array" ref="G102">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C102&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5579,18 +5295,15 @@
       <c r="F103" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="G103" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C103&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G103" s="63" cm="1">
+        <f t="array" ref="G103">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C103&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5612,18 +5325,15 @@
       <c r="F104" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="G104" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C104&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G104" s="63" cm="1">
+        <f t="array" ref="G104">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C104&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5645,18 +5355,15 @@
       <c r="F105" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="G105" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C105&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G105" s="63" cm="1">
+        <f t="array" ref="G105">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C105&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5678,18 +5385,15 @@
       <c r="F106" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="G106" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C106&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G106" s="63" cm="1">
+        <f t="array" ref="G106">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C106&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5713,18 +5417,15 @@
       <c r="F107" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="G107" s="63">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C107&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G107" s="63" cm="1">
+        <f t="array" ref="G107">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C107&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5746,18 +5447,15 @@
       <c r="F108" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="G108" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C108&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G108" s="63" cm="1">
+        <f t="array" ref="G108">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C108&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5779,18 +5477,15 @@
       <c r="F109" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="G109" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C109&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G109" s="63" cm="1">
+        <f t="array" ref="G109">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C109&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5812,18 +5507,15 @@
       <c r="F110" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="G110" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C110&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G110" s="63" cm="1">
+        <f t="array" ref="G110">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C110&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5845,18 +5537,15 @@
       <c r="F111" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="G111" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C111&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G111" s="63" cm="1">
+        <f t="array" ref="G111">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C111&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5878,18 +5567,15 @@
       <c r="F112" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="G112" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C112&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G112" s="63" cm="1">
+        <f t="array" ref="G112">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C112&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5911,18 +5597,15 @@
       <c r="F113" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="G113" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C113&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G113" s="63" cm="1">
+        <f t="array" ref="G113">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C113&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5946,18 +5629,15 @@
       <c r="F114" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="G114" s="67">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C114&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G114" s="63" cm="1">
+        <f t="array" ref="G114">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C114&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -5979,18 +5659,15 @@
       <c r="F115" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="G115" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C115&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G115" s="63" cm="1">
+        <f t="array" ref="G115">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C115&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -6012,18 +5689,15 @@
       <c r="F116" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="G116" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C116&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G116" s="63" cm="1">
+        <f t="array" ref="G116">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C116&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -6045,18 +5719,15 @@
       <c r="F117" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="G117" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C117&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G117" s="63" cm="1">
+        <f t="array" ref="G117">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C117&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -6078,18 +5749,15 @@
       <c r="F118" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="G118" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C118&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G118" s="63" cm="1">
+        <f t="array" ref="G118">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C118&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -6111,18 +5779,15 @@
       <c r="F119" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="G119" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C119&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G119" s="63" cm="1">
+        <f t="array" ref="G119">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C119&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -6144,18 +5809,15 @@
       <c r="F120" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="G120" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C120&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G120" s="63" cm="1">
+        <f t="array" ref="G120">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C120&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -6177,7 +5839,7 @@
       <c r="F121" s="50" t="s">
         <v>313</v>
       </c>
-      <c r="G121" s="70">
+      <c r="G121" s="65">
         <f ca="1">IFERROR(
     INDIRECT(
         "RawData!" &amp;
@@ -6210,18 +5872,15 @@
       <c r="F122" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="G122" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C122&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G122" s="63" cm="1">
+        <f t="array" ref="G122">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C122&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -6243,18 +5902,15 @@
       <c r="F123" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="G123" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C123&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G123" s="63" cm="1">
+        <f t="array" ref="G123">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C123&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -6276,18 +5932,15 @@
       <c r="F124" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="G124" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C124&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G124" s="63" cm="1">
+        <f t="array" ref="G124">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C124&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -6309,18 +5962,15 @@
       <c r="F125" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="G125" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C125&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G125" s="63" cm="1">
+        <f t="array" ref="G125">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C125&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -6342,18 +5992,15 @@
       <c r="F126" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="G126" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C126&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G126" s="63" cm="1">
+        <f t="array" ref="G126">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C126&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -6375,18 +6022,15 @@
       <c r="F127" s="28" t="s">
         <v>325</v>
       </c>
-      <c r="G127" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C127&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G127" s="63" cm="1">
+        <f t="array" ref="G127">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C127&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -6408,18 +6052,15 @@
       <c r="F128" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="G128" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C128&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G128" s="63" cm="1">
+        <f t="array" ref="G128">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C128&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -6441,18 +6082,15 @@
       <c r="F129" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="G129" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C129&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G129" s="63" cm="1">
+        <f t="array" ref="G129">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C129&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -6472,18 +6110,15 @@
       </c>
       <c r="E130" s="39"/>
       <c r="F130" s="40"/>
-      <c r="G130" s="68">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawFeeder!" &amp;
-        ADDRESS(
-            2,
-            MATCH(
-                'Energy Online (kWh)'!$C130,
-                RawFeeder!$1:$1,
-                0
-            ),
-            4
+      <c r="G130" s="63" cm="1">
+        <f t="array" ref="G130">IFERROR(
+    INDEX(
+        RawFeeder!$1:$1000,
+        COUNTA( RawFeeder!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C130,
+             RawFeeder!$1:$1,
+            0
         )
     ),
     0
@@ -6501,18 +6136,15 @@
       </c>
       <c r="E131" s="43"/>
       <c r="F131" s="51"/>
-      <c r="G131" s="68">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawFeeder!" &amp;
-        ADDRESS(
-            2,
-            MATCH(
-                'Energy Online (kWh)'!$C131,
-                RawFeeder!$1:$1,
-                0
-            ),
-            4
+      <c r="G131" s="63" cm="1">
+        <f t="array" ref="G131">IFERROR(
+    INDEX(
+        RawFeeder!$1:$1000,
+        COUNTA( RawFeeder!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C131,
+             RawFeeder!$1:$1,
+            0
         )
     ),
     0
@@ -6530,18 +6162,15 @@
       </c>
       <c r="E132" s="47"/>
       <c r="F132" s="52"/>
-      <c r="G132" s="68">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawFeeder!" &amp;
-        ADDRESS(
-            2,
-            MATCH(
-                'Energy Online (kWh)'!$C132,
-                RawFeeder!$1:$1,
-                0
-            ),
-            4
+      <c r="G132" s="63" cm="1">
+        <f t="array" ref="G132">IFERROR(
+    INDEX(
+        RawFeeder!$1:$1000,
+        COUNTA( RawFeeder!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C132,
+             RawFeeder!$1:$1,
+            0
         )
     ),
     0
@@ -6565,18 +6194,15 @@
       <c r="F133" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="G133" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C133&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G133" s="63" cm="1">
+        <f t="array" ref="G133">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C133&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -6598,18 +6224,15 @@
       <c r="F134" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="G134" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C134&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G134" s="63" cm="1">
+        <f t="array" ref="G134">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C134&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -6631,18 +6254,15 @@
       <c r="F135" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="G135" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C135&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G135" s="63" cm="1">
+        <f t="array" ref="G135">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C135&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -6664,18 +6284,15 @@
       <c r="F136" s="24" t="s">
         <v>347</v>
       </c>
-      <c r="G136" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C136&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G136" s="63" cm="1">
+        <f t="array" ref="G136">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C136&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -6697,18 +6314,15 @@
       <c r="F137" s="28" t="s">
         <v>350</v>
       </c>
-      <c r="G137" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C137&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G137" s="63" cm="1">
+        <f t="array" ref="G137">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C137&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -6730,18 +6344,15 @@
       <c r="F138" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="G138" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C138&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G138" s="63" cm="1">
+        <f t="array" ref="G138">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C138&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -6763,18 +6374,15 @@
       <c r="F139" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="G139" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C139&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G139" s="63" cm="1">
+        <f t="array" ref="G139">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C139&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -6796,18 +6404,15 @@
       <c r="F140" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="G140" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C140&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G140" s="63" cm="1">
+        <f t="array" ref="G140">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C140&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -6829,18 +6434,15 @@
       <c r="F141" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="G141" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C141&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G141" s="63" cm="1">
+        <f t="array" ref="G141">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C141&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -6862,18 +6464,15 @@
       <c r="F142" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="G142" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C142&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G142" s="63" cm="1">
+        <f t="array" ref="G142">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C142&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -6895,18 +6494,15 @@
       <c r="F143" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="G143" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C143&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G143" s="63" cm="1">
+        <f t="array" ref="G143">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C143&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -6928,18 +6524,15 @@
       <c r="F144" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="G144" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C144&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G144" s="63" cm="1">
+        <f t="array" ref="G144">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C144&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -6961,18 +6554,15 @@
       <c r="F145" s="28" t="s">
         <v>368</v>
       </c>
-      <c r="G145" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C145&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G145" s="63" cm="1">
+        <f t="array" ref="G145">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C145&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -6994,18 +6584,15 @@
       <c r="F146" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="G146" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C146&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G146" s="63" cm="1">
+        <f t="array" ref="G146">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C146&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -7025,18 +6612,15 @@
       </c>
       <c r="E147" s="55"/>
       <c r="F147" s="56"/>
-      <c r="G147" s="68">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawFeeder!" &amp;
-        ADDRESS(
-            2,
-            MATCH(
-                'Energy Online (kWh)'!$C147,
-                RawFeeder!$1:$1,
-                0
-            ),
-            4
+      <c r="G147" s="63" cm="1">
+        <f t="array" ref="G147">IFERROR(
+    INDEX(
+        RawFeeder!$1:$1000,
+        COUNTA( RawFeeder!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C147,
+             RawFeeder!$1:$1,
+            0
         )
     ),
     0
@@ -7054,18 +6638,15 @@
       </c>
       <c r="E148" s="47"/>
       <c r="F148" s="52"/>
-      <c r="G148" s="68">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawFeeder!" &amp;
-        ADDRESS(
-            2,
-            MATCH(
-                'Energy Online (kWh)'!$C148,
-                RawFeeder!$1:$1,
-                0
-            ),
-            4
+      <c r="G148" s="63" cm="1">
+        <f t="array" ref="G148">IFERROR(
+    INDEX(
+        RawFeeder!$1:$1000,
+        COUNTA( RawFeeder!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C148,
+             RawFeeder!$1:$1,
+            0
         )
     ),
     0
@@ -7083,18 +6664,15 @@
       </c>
       <c r="E149" s="43"/>
       <c r="F149" s="51"/>
-      <c r="G149" s="68">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawFeeder!" &amp;
-        ADDRESS(
-            2,
-            MATCH(
-                'Energy Online (kWh)'!$C149,
-                RawFeeder!$1:$1,
-                0
-            ),
-            4
+      <c r="G149" s="63" cm="1">
+        <f t="array" ref="G149">IFERROR(
+    INDEX(
+        RawFeeder!$1:$1000,
+        COUNTA( RawFeeder!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C149,
+             RawFeeder!$1:$1,
+            0
         )
     ),
     0
@@ -7118,18 +6696,15 @@
       <c r="F150" s="24" t="s">
         <v>376</v>
       </c>
-      <c r="G150" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C150&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G150" s="63" cm="1">
+        <f t="array" ref="G150">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C150&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -7151,18 +6726,15 @@
       <c r="F151" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="G151" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C151&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G151" s="63" cm="1">
+        <f t="array" ref="G151">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C151&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -7184,18 +6756,15 @@
       <c r="F152" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="G152" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C152&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G152" s="63" cm="1">
+        <f t="array" ref="G152">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C152&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -7217,18 +6786,15 @@
       <c r="F153" s="28" t="s">
         <v>381</v>
       </c>
-      <c r="G153" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C153&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G153" s="63" cm="1">
+        <f t="array" ref="G153">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C153&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -7250,18 +6816,15 @@
       <c r="F154" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="G154" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C154&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G154" s="63" cm="1">
+        <f t="array" ref="G154">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C154&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -7283,18 +6846,15 @@
       <c r="F155" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="G155" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C155&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G155" s="63" cm="1">
+        <f t="array" ref="G155">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C155&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -7316,18 +6876,15 @@
       <c r="F156" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="G156" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C156&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G156" s="63" cm="1">
+        <f t="array" ref="G156">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C156&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -7349,18 +6906,15 @@
       <c r="F157" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="G157" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C157&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G157" s="63" cm="1">
+        <f t="array" ref="G157">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C157&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -7382,18 +6936,15 @@
       <c r="F158" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="G158" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C158&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G158" s="63" cm="1">
+        <f t="array" ref="G158">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C158&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -7413,18 +6964,15 @@
       </c>
       <c r="E159" s="55"/>
       <c r="F159" s="56"/>
-      <c r="G159" s="68">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawFeeder!" &amp;
-        ADDRESS(
-            2,
-            MATCH(
-                'Energy Online (kWh)'!$C159,
-                RawFeeder!$1:$1,
-                0
-            ),
-            4
+      <c r="G159" s="63" cm="1">
+        <f t="array" ref="G159">IFERROR(
+    INDEX(
+        RawFeeder!$1:$1000,
+        COUNTA( RawFeeder!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C159,
+             RawFeeder!$1:$1,
+            0
         )
     ),
     0
@@ -7442,18 +6990,15 @@
       </c>
       <c r="E160" s="47"/>
       <c r="F160" s="52"/>
-      <c r="G160" s="68">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawFeeder!" &amp;
-        ADDRESS(
-            2,
-            MATCH(
-                'Energy Online (kWh)'!$C160,
-                RawFeeder!$1:$1,
-                0
-            ),
-            4
+      <c r="G160" s="63" cm="1">
+        <f t="array" ref="G160">IFERROR(
+    INDEX(
+        RawFeeder!$1:$1000,
+        COUNTA( RawFeeder!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C160,
+             RawFeeder!$1:$1,
+            0
         )
     ),
     0
@@ -7471,18 +7016,15 @@
       </c>
       <c r="E161" s="43"/>
       <c r="F161" s="51"/>
-      <c r="G161" s="68">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawFeeder!" &amp;
-        ADDRESS(
-            2,
-            MATCH(
-                'Energy Online (kWh)'!$C161,
-                RawFeeder!$1:$1,
-                0
-            ),
-            4
+      <c r="G161" s="63" cm="1">
+        <f t="array" ref="G161">IFERROR(
+    INDEX(
+        RawFeeder!$1:$1000,
+        COUNTA( RawFeeder!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C161,
+             RawFeeder!$1:$1,
+            0
         )
     ),
     0
@@ -7506,18 +7048,15 @@
       <c r="F162" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="G162" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C162&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G162" s="63" cm="1">
+        <f t="array" ref="G162">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C162&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -7539,18 +7078,15 @@
       <c r="F163" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="G163" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C163&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G163" s="63" cm="1">
+        <f t="array" ref="G163">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C163&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -7572,18 +7108,15 @@
       <c r="F164" s="24" t="s">
         <v>399</v>
       </c>
-      <c r="G164" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C164&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G164" s="63" cm="1">
+        <f t="array" ref="G164">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C164&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -7605,18 +7138,15 @@
       <c r="F165" s="28" t="s">
         <v>401</v>
       </c>
-      <c r="G165" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C165&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G165" s="63" cm="1">
+        <f t="array" ref="G165">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C165&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -7638,18 +7168,15 @@
       <c r="F166" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="G166" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C166&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G166" s="63" cm="1">
+        <f t="array" ref="G166">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C166&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -7671,18 +7198,15 @@
       <c r="F167" s="28" t="s">
         <v>405</v>
       </c>
-      <c r="G167" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C167&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G167" s="63" cm="1">
+        <f t="array" ref="G167">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C167&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -7704,18 +7228,15 @@
       <c r="F168" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="G168" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C168&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G168" s="63" cm="1">
+        <f t="array" ref="G168">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C168&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -7737,18 +7258,15 @@
       <c r="F169" s="28" t="s">
         <v>408</v>
       </c>
-      <c r="G169" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C169&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G169" s="63" cm="1">
+        <f t="array" ref="G169">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C169&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -7770,7 +7288,7 @@
       <c r="F170" s="50" t="s">
         <v>410</v>
       </c>
-      <c r="G170" s="70">
+      <c r="G170" s="65">
         <f ca="1">IFERROR(
     INDIRECT(
         "RawData!" &amp;
@@ -7803,18 +7321,15 @@
       <c r="F171" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="G171" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C171&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G171" s="63" cm="1">
+        <f t="array" ref="G171">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C171&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -7838,18 +7353,15 @@
       <c r="F172" s="36" t="s">
         <v>415</v>
       </c>
-      <c r="G172" s="67">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C172&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G172" s="63" cm="1">
+        <f t="array" ref="G172">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C172&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -7871,18 +7383,15 @@
       <c r="F173" s="28" t="s">
         <v>417</v>
       </c>
-      <c r="G173" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C173&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G173" s="63" cm="1">
+        <f t="array" ref="G173">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C173&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -7904,18 +7413,15 @@
       <c r="F174" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="G174" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C174&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G174" s="63" cm="1">
+        <f t="array" ref="G174">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C174&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -7937,18 +7443,15 @@
       <c r="F175" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="G175" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C175&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G175" s="63" cm="1">
+        <f t="array" ref="G175">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C175&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -7970,18 +7473,15 @@
       <c r="F176" s="24" t="s">
         <v>422</v>
       </c>
-      <c r="G176" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C176&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G176" s="63" cm="1">
+        <f t="array" ref="G176">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C176&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -8003,18 +7503,15 @@
       <c r="F177" s="28" t="s">
         <v>424</v>
       </c>
-      <c r="G177" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C177&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G177" s="63" cm="1">
+        <f t="array" ref="G177">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C177&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -8036,18 +7533,15 @@
       <c r="F178" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="G178" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C178&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G178" s="63" cm="1">
+        <f t="array" ref="G178">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C178&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -8069,18 +7563,15 @@
       <c r="F179" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="G179" s="65">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C179&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G179" s="63" cm="1">
+        <f t="array" ref="G179">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C179&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -8102,18 +7593,15 @@
       <c r="F180" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="G180" s="64">
-        <f ca="1">IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C180&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
+      <c r="G180" s="63" cm="1">
+        <f t="array" ref="G180">IFERROR(
+    INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C180&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
         )
     ),
     0
@@ -8137,22 +7625,19 @@
       <c r="F181" s="20" t="s">
         <v>433</v>
       </c>
-      <c r="G181" s="63">
-        <f ca="1">ABS(IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C181&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
-    0
-))</f>
+      <c r="G181" s="63" cm="1">
+        <f t="array" ref="G181">IFERROR(
+    ABS(INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C181&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
+        )
+    )),
+    0
+)</f>
         <v>0</v>
       </c>
     </row>
@@ -8170,22 +7655,19 @@
       <c r="F182" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="G182" s="64">
-        <f ca="1">ABS(IFERROR(
-    INDIRECT(
-        "RawData!" &amp;
-        ADDRESS(
-            COUNTA(RawData!A:A),
-            MATCH(
-                'Energy Online (kWh)'!$C182&amp;".TotalkWh",
-                RawData!$1:$1,
-                0
-            ),
-            4
-        )
-    ),
-    0
-))</f>
+      <c r="G182" s="63" cm="1">
+        <f t="array" ref="G182">IFERROR(
+    ABS(INDEX(
+        RawData!$1:$1000,
+        COUNTA(RawData!A:A),
+        MATCH(
+            'Energy Online (kWh)'!$C182&amp;".TotalkWh",
+            RawData!$1:$1,
+            0
+        )
+    )),
+    0
+)</f>
         <v>0</v>
       </c>
     </row>
@@ -8203,7 +7685,7 @@
       <c r="F183" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="G183" s="70">
+      <c r="G183" s="65">
         <f ca="1">IFERROR(
     INDIRECT(
         "RawData!" &amp;
@@ -8236,7 +7718,7 @@
       <c r="F184" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="G184" s="70">
+      <c r="G184" s="65">
         <f ca="1">IFERROR(
     INDIRECT(
         "RawData!" &amp;
@@ -8269,7 +7751,7 @@
       <c r="F185" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="G185" s="70">
+      <c r="G185" s="65">
         <f ca="1">IFERROR(
     INDIRECT(
         "RawData!" &amp;
@@ -8302,7 +7784,7 @@
       <c r="F186" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="G186" s="70">
+      <c r="G186" s="65">
         <f ca="1">IFERROR(
     INDIRECT(
         "RawData!" &amp;
@@ -8335,7 +7817,7 @@
       <c r="F187" s="60" t="s">
         <v>445</v>
       </c>
-      <c r="G187" s="71">
+      <c r="G187" s="66">
         <f ca="1">IFERROR(
     INDIRECT(
         "RawData!" &amp;
